--- a/DOC/要件定義/経費管理/開発内容.xlsx
+++ b/DOC/要件定義/経費管理/開発内容.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\softtech\git\emsm\DOC\要件定義\経費管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA64E70C-790B-4465-9F3C-6F10C10ED0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6DD4C9-7131-4A6F-B4AB-329D6A95D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="27195" windowHeight="14445" xr2:uid="{1FD6624F-EC2B-44F8-B321-3363FA5EF229}"/>
   </bookViews>
@@ -2378,7 +2378,7 @@
   <dimension ref="A2:AS112"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
